--- a/data/summary_22071810.xlsx
+++ b/data/summary_22071810.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1379 +406,1538 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>22.19558011049724</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>991.0618784530387</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.2629264462809917</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2667851239669422</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.594419323685494</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0001188954579018749</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.36077348066299</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.6143646408839779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>22.76132596685083</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>991.0038674033149</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3555669421487603</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3372917355371901</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.242252961890802</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.000110473164457032</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.255801104972376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>22.35911602209945</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>991.014364640884</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4042578512396694</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4461190082644628</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.245330168777005</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.06156849721771e-005</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.6779005524861879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>23.83204419889503</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>991.1834254143647</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.327603305785124</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3741752066115703</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.87415516434123</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7.388017823891968e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20.77182320441989</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.679005524861879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>24.49502762430939</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>991.2453038674033</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.4320842975206611</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.4481214876033058</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.589362655127941</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.332466236230387e-017</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.8646408839779</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>24.28011049723757</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>991.3961325966851</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.4432223140495868</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4817785123966942</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.519639214175579</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.333632091445562e-017</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20.9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.056353591160221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>25.28342541436464</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>991.4475138121547</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4352462809917355</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4744752066115702</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.511294227911768</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001378397516563071</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20.9</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>25.79502762430939</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>991.5629834254144</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4163371900826446</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4173107438016529</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.507286323666892</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0001331579183841669</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21.21933701657459</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.08232044198895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>26.25911602209945</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>991.5977900552487</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.4100446280991736</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4327247933884297</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.431957753200173</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0003037299168843952</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.63812154696133</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>27.78342541436464</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>991.6066298342541</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.4529884297520661</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.4719867768595041</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.775486221727299</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.000107231151873814</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>22.23756906077348</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.951933701657459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>29.10386740331492</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>991.6834254143647</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3184842975206612</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3107487603305785</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.98410087609704</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2.133649378523878e-005</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>22.82872928176796</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>30.50497237569061</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>991.7756906077348</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3373561983471075</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2992760330578512</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.11620555977099</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0001132070483765458</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23.13425414364641</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>30.21657458563536</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>991.7508287292818</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2367297520661157</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2224371900826446</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.55332117794273</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9.527183432029813e-005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>23.5121546961326</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>30.60828729281768</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>991.7530386740332</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.2806297520661157</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.262704132231405</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.692349694879834</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.000162959405847802</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>23.95801104972376</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>29.95303867403315</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>991.8883977900553</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.346596694214876</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.3496561983471074</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.049625157825869</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0002044901500554486</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>24.2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.074585635359116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>30.10331491712707</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>991.8977900552486</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.2812396694214876</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.2886099173553719</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.695416580579777</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0001644983014455056</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24.06906077348066</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.723204419889503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>30.52265193370166</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>991.8961325966851</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.3904471074380165</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4040380165289256</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.327973201253542</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.052609162734316e-005</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>24.29502762430939</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>28.42651933701658</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>992.4011049723757</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.5393619834710743</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4871677685950413</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3.411426083419573</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.0001263924375819456</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>24.98729281767956</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>26.89723756906077</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>992.4044198895027</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.4967495867768595</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4873264462809918</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3.143097467852073</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.0001146195416168609</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>24.55745856353591</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5.027624309392265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>26.05027624309392</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>992.4867403314917</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.396304132231405</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3866834710743802</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.507480114382546</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-5.27307813368068e-005</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>24.01878453038674</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9.720441988950276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>25.55911602209945</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>992.5651933701657</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4060793388429752</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.3775107438016529</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.583569530100627</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.863245401143265e-018</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23.7</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4.310497237569061</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>25.02209944751381</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>992.6591160220995</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3916438016528926</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.3852495867768595</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2.372764046918115</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4.541441360916383e-005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>23.56961325966851</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.05469613259668508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>24.80276243093923</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>992.6723756906077</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.325805785123967</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.2769140495867768</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.23063162975106</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2.664939539657315e-005</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>23.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.497237569060773</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>24.82486187845304</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>992.7762430939226</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3238677685950414</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3318801652892562</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.870909252560149</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0001154817565758307</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>23.5</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.10939226519337</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>26.32762430939227</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>992.8988950276242</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3127330578512397</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.3129735537190083</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.004957669064671</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0001321829386237822</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>23.5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.899447513812155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>26.65248618784531</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>992.9005524861879</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.3770785123966942</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.408503305785124</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.217371742214147</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.0001383666656014063</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>23.5</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.840883977900552</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>25.73093922651934</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>992.9</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.4902173553719008</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.5187090909090909</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.94169817394761</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.476856206413844e-018</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>23.5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3.259116022099448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>25.44585635359116</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>992.8972375690607</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.4789504132231405</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.4878636363636364</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3.016317037039467</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.0001165613359263345</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>23.5</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.230939226519337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>25.27513812154696</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>992.8220994475138</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.3548561983471074</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.3619694214876033</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.155582170274158</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001312983505817438</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>23.43591160220995</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3.065745856353591</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>26.0121546961326</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>992.7237569060774</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.5200305785123967</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.4269826446280992</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.511758161577384</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0001468529991378615</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>23.72430939226519</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7.429281767955801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>27.19668508287293</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>992.6977900552487</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.5795545454545454</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.5880793388429753</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>3.497809803637728</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0001623561342906154</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>24.25193370165746</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3.590055248618785</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>27.15428571428571</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>992.7628571428571</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.7997052173913044</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.7694591304347827</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5.037710888321179</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.000158929829154073</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>24.34285714285714</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1.334285714285714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>27.4414364640884</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>992.7027624309393</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.4212900826446281</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3595719008264463</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2.78171706956492</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.0001410813732639372</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>24.56243093922652</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.8325966850828729</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>27.55524861878453</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>992.7011049723758</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.3875297520661157</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3850123966942149</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.424164313713864</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4.736035913788829e-005</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>24.89447513812155</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.10828729281768</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>27.63812154696133</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>992.6049723756906</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.4294545454545455</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.397999173553719</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.850895748828396</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-2.640698242692925e-017</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>24.82375690607735</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>10.75138121546961</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>27.53756906077348</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>991.9193370165746</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.4494347107438017</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.4388892561983471</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2.849879692142721</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-3.8129820326785e-017</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>26.13425414364641</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5.002209944751381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>27.07403314917127</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>991.8994475138121</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.387503305785124</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.3682851239669421</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.497446681006201</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9.52062658016254e-005</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>25.55580110497238</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4.081767955801105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>27.32707182320442</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>991.9005524861879</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4525595041322314</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.4451471074380166</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2.780527567528562</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.0001226057123665523</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>25.4</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.094475138121547</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>27.34861878453039</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>991.9016574585635</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.3409702479338843</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.3334760330578512</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.138716300155836</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2.077452358633105e-005</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>25.4</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>27.51381215469613</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>991.8988950276242</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.2919752066115702</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.3007710743801653</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1.710027750548707</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.0001387179023007363</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>25.4</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1.580662983425414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>27.63093922651934</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>991.9033149171271</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.3493793388429752</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.3631793388429752</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2.136711416845344</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>5.395124455021756e-005</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>25.4</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.167955801104973</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>27.44088397790055</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>991.8414364640884</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.3761561983471075</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.3801909090909091</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.351722663977884</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-2.640398616539241e-017</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>25.4</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1.41878453038674</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>27.80386740331492</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>991.7243093922652</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.3270892561983471</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.3201123966942149</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2.063927743832859</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.0001371963872319087</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>25.5889502762431</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1.274033149171271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>28.3</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>991.6773480662984</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.3754396694214876</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.3663305785123967</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>2.344629091006716</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.0001140239235911991</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>25.6</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>3.068508287292818</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>28.55635359116022</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>991.5530386740331</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.2222925619834711</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.235904132231405</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1.348621302372894</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>6.386576479855714e-006</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>25.76408839779005</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2.520994475138122</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>28.45303867403315</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>991.4983425414365</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.2960371900826446</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.2881586776859504</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1.917012914207146</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-1.315313022734936e-017</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>25.9</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1.321546961325967</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>28.25027624309392</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>991.4093922651933</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.3605578512396694</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.389295867768595</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2.060214886038164</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>9.288892739685259e-005</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>25.9</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>0.4779005524861879</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>28.51933701657459</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>991.3911602209945</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.5372785123966942</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.4762842975206612</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>3.477882461622774</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-2.775861483476353e-017</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>25.9</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>3.41767955801105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>29.08397790055249</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>991.4077348066298</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.4122834710743802</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.4003950413223141</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2.550445572386746</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>2.98355332630422e-006</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>26.16961325966851</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>29.10055248618785</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>991.3701657458563</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.3799330578512397</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.3872247933884297</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2.337691583866278</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>9.029932079789449e-005</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>26.4</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>0.6419889502762431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>29.49005524861878</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>991.2337016574586</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.4458669421487603</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.4446768595041322</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>2.758789174312994</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.0001223474871299193</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>26.6817679558011</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2.529281767955801</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>29.86408839779006</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>991.1939226519337</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.3644859504132231</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.3821801652892562</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>2.190087626743408</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>-1.30878511747693e-017</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>26.83591160220994</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>30.51546961325967</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>991.1298342541437</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.3917768595041322</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.3592082644628099</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2.537705182399654</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.0001076496398013499</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>27.15690607734807</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1.729281767955801</v>
       </c>
     </row>
